--- a/Numerai_data_staking_sumarry.xlsx
+++ b/Numerai_data_staking_sumarry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moda2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moda2\Documents\moda\Holdings-of-Numerai-GP-LLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ACC40F-8CCB-4D37-91D0-558F61D016F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D268AE-ED9A-4F48-A0E6-7E434A6074BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{1266EB20-D47D-4DF9-B6B0-D9F656D8C5C3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Data Changes</t>
     <phoneticPr fontId="1"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MMC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,10 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Using V4.1 Data, Staking TC until 2023-08-31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Modifier</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -216,6 +208,10 @@
   </si>
   <si>
     <t>Expands the dataset Universe to include more useful stocks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Using V4.1 Data until 2023-08-31</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -387,7 +383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,9 +406,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -794,30 +787,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>45529</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +824,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -855,150 +848,146 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="7" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
@@ -1007,17 +996,15 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>44</v>
+      <c r="F11" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
